--- a/attached_assets/PED 1_1763437023609.xlsx
+++ b/attached_assets/PED 1_1763437023609.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtnenggdiv-my.sharepoint.com/personal/gtnit_gtnengg_net/Documents/Narain_IT/Desktop/Contract Review/attached_assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="13_ncr:1_{180DD469-C44D-48A5-857B-803EAF707B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12A66520-D29C-4CD6-B855-7C60761184D4}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="13_ncr:1_{180DD469-C44D-48A5-857B-803EAF707B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91C3A13D-82CA-48F6-A788-3A2B5BA71D3B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <definedName name="CUSTOMER">#REF!</definedName>
     <definedName name="FMCCustomer">[1]Sheet12!$A$1:$A$13</definedName>
     <definedName name="FMCzone">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'PED-1'!$A$1:$Z$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'PED-1'!$A$1:$Z$40</definedName>
     <definedName name="Region">#REF!</definedName>
     <definedName name="zone">#REF!</definedName>
   </definedNames>
@@ -383,7 +383,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -736,26 +736,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -796,268 +783,241 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1211,6 +1171,10 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1543,10 +1507,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AC48"/>
+  <dimension ref="A1:AC47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC38" sqref="AC38"/>
+      <selection activeCell="A37" sqref="A37:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1571,195 +1535,195 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="e" vm="1">
+      <c r="A1" s="18" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="68" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="71" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="U1" s="72"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="40" t="s">
+      <c r="U1" s="26"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="42"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="56"/>
     </row>
     <row r="2" spans="1:26" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="43" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="46" t="s">
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="U2" s="47"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="49" t="s">
+      <c r="U2" s="61"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="51"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="65"/>
     </row>
     <row r="3" spans="1:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="61"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="7"/>
       <c r="D3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="54"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="68"/>
       <c r="K3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="55"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="62" t="s">
+      <c r="L3" s="69"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="63"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="60"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="72"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="74"/>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="78" t="s">
+      <c r="E4" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="93" t="s">
+      <c r="F4" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="94"/>
-      <c r="U4" s="95"/>
-      <c r="V4" s="79"/>
-      <c r="W4" s="80"/>
-      <c r="X4" s="80"/>
-      <c r="Y4" s="80"/>
-      <c r="Z4" s="81"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="39"/>
     </row>
     <row r="5" spans="1:26" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="82" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="85" t="s">
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="85"/>
-      <c r="O5" s="86" t="s">
+      <c r="N5" s="43"/>
+      <c r="O5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="77" t="s">
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="77"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="87" t="s">
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="W5" s="88"/>
-      <c r="X5" s="88"/>
-      <c r="Y5" s="88"/>
-      <c r="Z5" s="89"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="47"/>
     </row>
     <row r="6" spans="1:26" ht="165" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="75"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
       <c r="F6" s="2" t="s">
         <v>20</v>
       </c>
@@ -1781,26 +1745,26 @@
       <c r="L6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="90" t="s">
+      <c r="M6" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="N6" s="91"/>
-      <c r="O6" s="90" t="s">
+      <c r="N6" s="49"/>
+      <c r="O6" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="P6" s="92"/>
-      <c r="Q6" s="92"/>
-      <c r="R6" s="91"/>
-      <c r="S6" s="90" t="s">
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="T6" s="92"/>
-      <c r="U6" s="91"/>
-      <c r="V6" s="79"/>
-      <c r="W6" s="80"/>
-      <c r="X6" s="80"/>
-      <c r="Y6" s="80"/>
-      <c r="Z6" s="81"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="39"/>
     </row>
     <row r="7" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
@@ -1815,20 +1779,20 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="27"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="31"/>
     </row>
     <row r="8" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
@@ -1843,20 +1807,20 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="27"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="31"/>
     </row>
     <row r="9" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
@@ -1871,20 +1835,20 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="26"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="27"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="31"/>
     </row>
     <row r="10" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
@@ -1899,20 +1863,20 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="27"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="31"/>
     </row>
     <row r="11" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
@@ -1927,20 +1891,20 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="27"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="31"/>
     </row>
     <row r="12" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
@@ -1955,20 +1919,20 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="27"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="31"/>
     </row>
     <row r="13" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
@@ -1983,20 +1947,20 @@
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="27"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="31"/>
     </row>
     <row r="14" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
@@ -2011,20 +1975,20 @@
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="26"/>
-      <c r="X14" s="26"/>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="27"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="31"/>
     </row>
     <row r="15" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
@@ -2039,20 +2003,20 @@
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="26"/>
-      <c r="X15" s="26"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="27"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="31"/>
     </row>
     <row r="16" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
@@ -2067,20 +2031,20 @@
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="26"/>
-      <c r="X16" s="26"/>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="27"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="31"/>
     </row>
     <row r="17" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
@@ -2095,20 +2059,20 @@
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="25"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="26"/>
-      <c r="X17" s="26"/>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="27"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="31"/>
     </row>
     <row r="18" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
@@ -2123,20 +2087,20 @@
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="25"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="26"/>
-      <c r="X18" s="26"/>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="27"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="31"/>
     </row>
     <row r="19" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
@@ -2151,20 +2115,20 @@
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="25"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="26"/>
-      <c r="X19" s="26"/>
-      <c r="Y19" s="26"/>
-      <c r="Z19" s="27"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="31"/>
     </row>
     <row r="20" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
@@ -2179,20 +2143,20 @@
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="26"/>
-      <c r="U20" s="25"/>
-      <c r="V20" s="24"/>
-      <c r="W20" s="26"/>
-      <c r="X20" s="26"/>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="27"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="31"/>
     </row>
     <row r="21" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
@@ -2207,20 +2171,20 @@
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="25"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="26"/>
-      <c r="X21" s="26"/>
-      <c r="Y21" s="26"/>
-      <c r="Z21" s="27"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="30"/>
+      <c r="Z21" s="31"/>
     </row>
     <row r="22" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
@@ -2235,20 +2199,20 @@
       <c r="J22" s="13"/>
       <c r="K22" s="13"/>
       <c r="L22" s="13"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="25"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="26"/>
-      <c r="X22" s="26"/>
-      <c r="Y22" s="26"/>
-      <c r="Z22" s="27"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="30"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="31"/>
     </row>
     <row r="23" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
@@ -2263,20 +2227,20 @@
       <c r="J23" s="13"/>
       <c r="K23" s="13"/>
       <c r="L23" s="13"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="26"/>
-      <c r="U23" s="25"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="26"/>
-      <c r="X23" s="26"/>
-      <c r="Y23" s="26"/>
-      <c r="Z23" s="27"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="28"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="30"/>
+      <c r="Z23" s="31"/>
     </row>
     <row r="24" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
@@ -2291,20 +2255,20 @@
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="24"/>
-      <c r="W24" s="26"/>
-      <c r="X24" s="26"/>
-      <c r="Y24" s="26"/>
-      <c r="Z24" s="27"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="28"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="31"/>
     </row>
     <row r="25" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
@@ -2319,20 +2283,20 @@
       <c r="J25" s="13"/>
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="26"/>
-      <c r="U25" s="25"/>
-      <c r="V25" s="24"/>
-      <c r="W25" s="26"/>
-      <c r="X25" s="26"/>
-      <c r="Y25" s="26"/>
-      <c r="Z25" s="27"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="30"/>
+      <c r="X25" s="30"/>
+      <c r="Y25" s="30"/>
+      <c r="Z25" s="31"/>
     </row>
     <row r="26" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
@@ -2347,20 +2311,20 @@
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
       <c r="L26" s="13"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="25"/>
-      <c r="V26" s="24"/>
-      <c r="W26" s="26"/>
-      <c r="X26" s="26"/>
-      <c r="Y26" s="26"/>
-      <c r="Z26" s="27"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="28"/>
+      <c r="W26" s="30"/>
+      <c r="X26" s="30"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="31"/>
     </row>
     <row r="27" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
@@ -2375,20 +2339,20 @@
       <c r="J27" s="13"/>
       <c r="K27" s="13"/>
       <c r="L27" s="13"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="26"/>
-      <c r="U27" s="25"/>
-      <c r="V27" s="24"/>
-      <c r="W27" s="26"/>
-      <c r="X27" s="26"/>
-      <c r="Y27" s="26"/>
-      <c r="Z27" s="27"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="30"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="30"/>
+      <c r="X27" s="30"/>
+      <c r="Y27" s="30"/>
+      <c r="Z27" s="31"/>
     </row>
     <row r="28" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
@@ -2403,20 +2367,20 @@
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
       <c r="L28" s="13"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="26"/>
-      <c r="U28" s="25"/>
-      <c r="V28" s="24"/>
-      <c r="W28" s="26"/>
-      <c r="X28" s="26"/>
-      <c r="Y28" s="26"/>
-      <c r="Z28" s="27"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="30"/>
+      <c r="Y28" s="30"/>
+      <c r="Z28" s="31"/>
     </row>
     <row r="29" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
@@ -2431,20 +2395,20 @@
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
       <c r="L29" s="13"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="25"/>
-      <c r="S29" s="24"/>
-      <c r="T29" s="26"/>
-      <c r="U29" s="25"/>
-      <c r="V29" s="24"/>
-      <c r="W29" s="26"/>
-      <c r="X29" s="26"/>
-      <c r="Y29" s="26"/>
-      <c r="Z29" s="27"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="30"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="28"/>
+      <c r="W29" s="30"/>
+      <c r="X29" s="30"/>
+      <c r="Y29" s="30"/>
+      <c r="Z29" s="31"/>
     </row>
     <row r="30" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
@@ -2459,20 +2423,20 @@
       <c r="J30" s="13"/>
       <c r="K30" s="13"/>
       <c r="L30" s="13"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="26"/>
-      <c r="R30" s="25"/>
-      <c r="S30" s="24"/>
-      <c r="T30" s="26"/>
-      <c r="U30" s="25"/>
-      <c r="V30" s="24"/>
-      <c r="W30" s="26"/>
-      <c r="X30" s="26"/>
-      <c r="Y30" s="26"/>
-      <c r="Z30" s="27"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="28"/>
+      <c r="T30" s="30"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="28"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="30"/>
+      <c r="Y30" s="30"/>
+      <c r="Z30" s="31"/>
     </row>
     <row r="31" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
@@ -2487,20 +2451,20 @@
       <c r="J31" s="13"/>
       <c r="K31" s="13"/>
       <c r="L31" s="13"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="26"/>
-      <c r="Q31" s="26"/>
-      <c r="R31" s="25"/>
-      <c r="S31" s="24"/>
-      <c r="T31" s="26"/>
-      <c r="U31" s="25"/>
-      <c r="V31" s="24"/>
-      <c r="W31" s="26"/>
-      <c r="X31" s="26"/>
-      <c r="Y31" s="26"/>
-      <c r="Z31" s="27"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="28"/>
+      <c r="T31" s="30"/>
+      <c r="U31" s="29"/>
+      <c r="V31" s="28"/>
+      <c r="W31" s="30"/>
+      <c r="X31" s="30"/>
+      <c r="Y31" s="30"/>
+      <c r="Z31" s="31"/>
     </row>
     <row r="32" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
@@ -2515,20 +2479,20 @@
       <c r="J32" s="13"/>
       <c r="K32" s="13"/>
       <c r="L32" s="13"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="26"/>
-      <c r="R32" s="25"/>
-      <c r="S32" s="24"/>
-      <c r="T32" s="26"/>
-      <c r="U32" s="25"/>
-      <c r="V32" s="24"/>
-      <c r="W32" s="26"/>
-      <c r="X32" s="26"/>
-      <c r="Y32" s="26"/>
-      <c r="Z32" s="27"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="28"/>
+      <c r="T32" s="30"/>
+      <c r="U32" s="29"/>
+      <c r="V32" s="28"/>
+      <c r="W32" s="30"/>
+      <c r="X32" s="30"/>
+      <c r="Y32" s="30"/>
+      <c r="Z32" s="31"/>
     </row>
     <row r="33" spans="1:29" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
@@ -2543,20 +2507,20 @@
       <c r="J33" s="13"/>
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="25"/>
-      <c r="S33" s="24"/>
-      <c r="T33" s="26"/>
-      <c r="U33" s="25"/>
-      <c r="V33" s="24"/>
-      <c r="W33" s="26"/>
-      <c r="X33" s="26"/>
-      <c r="Y33" s="26"/>
-      <c r="Z33" s="27"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="28"/>
+      <c r="T33" s="30"/>
+      <c r="U33" s="29"/>
+      <c r="V33" s="28"/>
+      <c r="W33" s="30"/>
+      <c r="X33" s="30"/>
+      <c r="Y33" s="30"/>
+      <c r="Z33" s="31"/>
     </row>
     <row r="34" spans="1:29" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
@@ -2571,20 +2535,20 @@
       <c r="J34" s="13"/>
       <c r="K34" s="13"/>
       <c r="L34" s="13"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="26"/>
-      <c r="R34" s="25"/>
-      <c r="S34" s="24"/>
-      <c r="T34" s="26"/>
-      <c r="U34" s="25"/>
-      <c r="V34" s="24"/>
-      <c r="W34" s="26"/>
-      <c r="X34" s="26"/>
-      <c r="Y34" s="26"/>
-      <c r="Z34" s="27"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="29"/>
+      <c r="S34" s="28"/>
+      <c r="T34" s="30"/>
+      <c r="U34" s="29"/>
+      <c r="V34" s="28"/>
+      <c r="W34" s="30"/>
+      <c r="X34" s="30"/>
+      <c r="Y34" s="30"/>
+      <c r="Z34" s="31"/>
     </row>
     <row r="35" spans="1:29" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
@@ -2599,20 +2563,20 @@
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
       <c r="L35" s="13"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="24"/>
-      <c r="P35" s="26"/>
-      <c r="Q35" s="26"/>
-      <c r="R35" s="25"/>
-      <c r="S35" s="24"/>
-      <c r="T35" s="26"/>
-      <c r="U35" s="25"/>
-      <c r="V35" s="24"/>
-      <c r="W35" s="26"/>
-      <c r="X35" s="26"/>
-      <c r="Y35" s="26"/>
-      <c r="Z35" s="27"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="30"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="28"/>
+      <c r="T35" s="30"/>
+      <c r="U35" s="29"/>
+      <c r="V35" s="28"/>
+      <c r="W35" s="30"/>
+      <c r="X35" s="30"/>
+      <c r="Y35" s="30"/>
+      <c r="Z35" s="31"/>
     </row>
     <row r="36" spans="1:29" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
@@ -2627,188 +2591,298 @@
       <c r="J36" s="13"/>
       <c r="K36" s="13"/>
       <c r="L36" s="13"/>
-      <c r="M36" s="24"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="24"/>
-      <c r="P36" s="26"/>
-      <c r="Q36" s="26"/>
-      <c r="R36" s="25"/>
-      <c r="S36" s="24"/>
-      <c r="T36" s="26"/>
-      <c r="U36" s="25"/>
-      <c r="V36" s="24"/>
-      <c r="W36" s="26"/>
-      <c r="X36" s="26"/>
-      <c r="Y36" s="26"/>
-      <c r="Z36" s="27"/>
-    </row>
-    <row r="37" spans="1:29" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
+      <c r="M36" s="28"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="30"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="28"/>
+      <c r="T36" s="30"/>
+      <c r="U36" s="29"/>
+      <c r="V36" s="28"/>
+      <c r="W36" s="30"/>
+      <c r="X36" s="30"/>
+      <c r="Y36" s="30"/>
+      <c r="Z36" s="31"/>
+    </row>
+    <row r="37" spans="1:29" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="18"/>
-      <c r="R37" s="19"/>
-      <c r="S37" s="17"/>
-      <c r="T37" s="18"/>
-      <c r="U37" s="19"/>
-      <c r="V37" s="17"/>
-      <c r="W37" s="18"/>
-      <c r="X37" s="18"/>
-      <c r="Y37" s="18"/>
-      <c r="Z37" s="22"/>
-    </row>
-    <row r="38" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="96"/>
-      <c r="B38" s="97"/>
-      <c r="C38" s="97"/>
-      <c r="D38" s="97"/>
-      <c r="E38" s="98"/>
-      <c r="F38" s="99"/>
-      <c r="G38" s="100"/>
-      <c r="H38" s="100"/>
-      <c r="I38" s="100"/>
-      <c r="J38" s="100"/>
-      <c r="K38" s="100"/>
-      <c r="L38" s="101"/>
-      <c r="M38" s="99"/>
-      <c r="N38" s="101"/>
-      <c r="O38" s="99"/>
-      <c r="P38" s="100"/>
-      <c r="Q38" s="100"/>
-      <c r="R38" s="101"/>
-      <c r="S38" s="99"/>
-      <c r="T38" s="100"/>
-      <c r="U38" s="101"/>
-      <c r="V38" s="20"/>
-      <c r="W38" s="21"/>
-      <c r="X38" s="21"/>
-      <c r="Y38" s="21"/>
-      <c r="Z38" s="23"/>
-    </row>
-    <row r="39" spans="1:29" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="79"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="91"/>
+      <c r="F37" s="88"/>
+      <c r="G37" s="89"/>
+      <c r="H37" s="89"/>
+      <c r="I37" s="89"/>
+      <c r="J37" s="89"/>
+      <c r="K37" s="89"/>
+      <c r="L37" s="90"/>
+      <c r="M37" s="88"/>
+      <c r="N37" s="90"/>
+      <c r="O37" s="88"/>
+      <c r="P37" s="89"/>
+      <c r="Q37" s="89"/>
+      <c r="R37" s="90"/>
+      <c r="S37" s="88"/>
+      <c r="T37" s="89"/>
+      <c r="U37" s="90"/>
+      <c r="V37" s="88"/>
+      <c r="W37" s="89"/>
+      <c r="X37" s="89"/>
+      <c r="Y37" s="89"/>
+      <c r="Z37" s="92"/>
+    </row>
+    <row r="38" spans="1:29" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="79"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="G38" s="80"/>
+      <c r="H38" s="80"/>
+      <c r="I38" s="80"/>
+      <c r="J38" s="80"/>
+      <c r="K38" s="80"/>
+      <c r="L38" s="80"/>
+      <c r="M38" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="N38" s="81"/>
+      <c r="O38" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="P38" s="81"/>
+      <c r="Q38" s="81"/>
+      <c r="R38" s="81"/>
+      <c r="S38" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="T38" s="81"/>
+      <c r="U38" s="81"/>
+      <c r="V38" s="82"/>
+      <c r="W38" s="82"/>
+      <c r="X38" s="82"/>
+      <c r="Y38" s="82"/>
+      <c r="Z38" s="83"/>
+    </row>
+    <row r="39" spans="1:29" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="N39" s="32"/>
-      <c r="O39" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="P39" s="32"/>
-      <c r="Q39" s="32"/>
-      <c r="R39" s="32"/>
-      <c r="S39" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="T39" s="32"/>
-      <c r="U39" s="32"/>
-      <c r="V39" s="33"/>
-      <c r="W39" s="33"/>
-      <c r="X39" s="33"/>
-      <c r="Y39" s="33"/>
-      <c r="Z39" s="34"/>
-    </row>
-    <row r="40" spans="1:29" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="39"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="36"/>
-      <c r="O40" s="36"/>
-      <c r="P40" s="36"/>
-      <c r="Q40" s="36"/>
-      <c r="R40" s="36"/>
-      <c r="S40" s="36"/>
-      <c r="T40" s="36"/>
-      <c r="U40" s="36"/>
-      <c r="V40" s="36"/>
-      <c r="W40" s="36"/>
-      <c r="X40" s="36"/>
-      <c r="Y40" s="36"/>
-      <c r="Z40" s="37"/>
-    </row>
-    <row r="41" spans="1:29" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="28" t="s">
+      <c r="B39" s="87"/>
+      <c r="C39" s="84"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="85"/>
+      <c r="F39" s="85"/>
+      <c r="G39" s="85"/>
+      <c r="H39" s="85"/>
+      <c r="I39" s="85"/>
+      <c r="J39" s="85"/>
+      <c r="K39" s="85"/>
+      <c r="L39" s="85"/>
+      <c r="M39" s="85"/>
+      <c r="N39" s="85"/>
+      <c r="O39" s="85"/>
+      <c r="P39" s="85"/>
+      <c r="Q39" s="85"/>
+      <c r="R39" s="85"/>
+      <c r="S39" s="85"/>
+      <c r="T39" s="85"/>
+      <c r="U39" s="85"/>
+      <c r="V39" s="85"/>
+      <c r="W39" s="85"/>
+      <c r="X39" s="85"/>
+      <c r="Y39" s="85"/>
+      <c r="Z39" s="86"/>
+    </row>
+    <row r="40" spans="1:29" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="29"/>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="29"/>
-      <c r="R41" s="29"/>
-      <c r="S41" s="29"/>
-      <c r="T41" s="29"/>
-      <c r="U41" s="29"/>
-      <c r="V41" s="29"/>
-      <c r="W41" s="29"/>
-      <c r="X41" s="29"/>
-      <c r="Y41" s="29"/>
-      <c r="Z41" s="30"/>
-      <c r="AA41" s="5"/>
-      <c r="AB41" s="6"/>
-      <c r="AC41" s="6"/>
-    </row>
-    <row r="46" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="C46" s="3"/>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="I48" s="4"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="76"/>
+      <c r="I40" s="76"/>
+      <c r="J40" s="76"/>
+      <c r="K40" s="76"/>
+      <c r="L40" s="76"/>
+      <c r="M40" s="76"/>
+      <c r="N40" s="76"/>
+      <c r="O40" s="76"/>
+      <c r="P40" s="76"/>
+      <c r="Q40" s="76"/>
+      <c r="R40" s="76"/>
+      <c r="S40" s="76"/>
+      <c r="T40" s="76"/>
+      <c r="U40" s="76"/>
+      <c r="V40" s="76"/>
+      <c r="W40" s="76"/>
+      <c r="X40" s="76"/>
+      <c r="Y40" s="76"/>
+      <c r="Z40" s="77"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="6"/>
+      <c r="AC40" s="6"/>
+    </row>
+    <row r="45" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="C45" s="3"/>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="I47" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="162">
+    <mergeCell ref="V37:Z37"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="S35:U35"/>
+    <mergeCell ref="V35:Z35"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:Z33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:Z34"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:Z31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:Z32"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:Z29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:Z30"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:Z28"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:Z16"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:Z23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:Z24"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:Z21"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:Z25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:Z26"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:Z22"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="V36:Z36"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:Z17"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:Z18"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:Z19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:Z20"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:Z14"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:Z27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="A40:Z40"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="F38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="S38:U38"/>
+    <mergeCell ref="V38:Z38"/>
+    <mergeCell ref="C39:Z39"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="F37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="S37:U37"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:Z15"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:Z10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:Z11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:Z12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:Z13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:Z9"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="C2:S2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="L3:R3"/>
+    <mergeCell ref="V3:Z3"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:Z8"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="S3:U3"/>
     <mergeCell ref="A1:B2"/>
@@ -2833,149 +2907,6 @@
     <mergeCell ref="O6:R6"/>
     <mergeCell ref="S6:U6"/>
     <mergeCell ref="F4:U4"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:Z9"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="C2:S2"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="E3:J3"/>
-    <mergeCell ref="L3:R3"/>
-    <mergeCell ref="V3:Z3"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:Z8"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:Z15"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:Z10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:Z11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:Z12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:Z13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:Z14"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:Z27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="A41:Z41"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="F39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:R39"/>
-    <mergeCell ref="S39:U39"/>
-    <mergeCell ref="V39:Z39"/>
-    <mergeCell ref="C40:Z40"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="F37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="S37:U37"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="F38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:R38"/>
-    <mergeCell ref="S38:U38"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:Z22"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="V36:Z36"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:Z17"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:Z18"/>
-    <mergeCell ref="O19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:Z19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:Z20"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:Z25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:Z26"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:Z16"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:Z23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:Z24"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:Z21"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:Z29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:Z30"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:Z28"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:Z33"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:Z34"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:Z31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:Z32"/>
-    <mergeCell ref="V37:Z38"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="S35:U35"/>
-    <mergeCell ref="V35:Z35"/>
   </mergeCells>
   <conditionalFormatting sqref="A3 C3:E3 K3:L3 S3">
     <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="N/A">
